--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.120319-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.120319-1.xlsx_with_dialog_acts.xlsx
@@ -931,12 +931,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3945,12 +3945,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4097,12 +4097,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4135,12 +4135,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4367,12 +4367,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4941,12 +4941,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5663,12 +5663,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6051,12 +6051,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6165,12 +6165,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6549,12 +6549,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7119,12 +7119,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7157,12 +7157,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7959,12 +7959,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8913,12 +8913,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9069,12 +9069,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10335,12 +10335,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10601,12 +10601,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10829,12 +10829,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10943,12 +10943,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12787,12 +12787,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13015,12 +13015,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13471,12 +13471,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14235,12 +14235,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14273,12 +14273,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14919,12 +14919,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15147,12 +15147,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15185,12 +15185,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15641,12 +15641,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16025,12 +16025,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16215,12 +16215,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16291,12 +16291,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16405,12 +16405,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16785,12 +16785,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16899,12 +16899,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17089,12 +17089,12 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17583,12 +17583,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17659,12 +17659,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18153,12 +18153,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18267,12 +18267,12 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18495,12 +18495,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18685,12 +18685,12 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18989,12 +18989,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19255,12 +19255,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19559,12 +19559,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20509,12 +20509,12 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20775,12 +20775,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20927,12 +20927,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21609,12 +21609,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
